--- a/Daisy-xls/ResearchPages/research-cervical-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-cervical-cancer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2007/hpv-vaccine0707</t>
-  </si>
-  <si>
     <t>Treatment Regimen Extends Survival for Women with Cervical Cancer</t>
   </si>
   <si>
@@ -45,15 +42,6 @@
     <t>Gardasil 9 Vaccine Protects against Additional HPV Types</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2009/gemcitabine_cervical0609</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/newscenter/newsfromnci/2013/GOG240</t>
-  </si>
-  <si>
-    <t>http://www.cancer.gov/clinicaltrials/results/summary/2015/gardasil9-0215</t>
-  </si>
-  <si>
     <t>Bevacizumab significantly improves survival for patients with recurrent and metastatic cervical cancer [#2621]</t>
   </si>
   <si>
@@ -105,10 +93,19 @@
     <t>A Snapshot of Cervical Cancer</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/researchandfunding/snapshots/cervical</t>
-  </si>
-  <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/researchandfunding/snapshots/cervical</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2015/gardasil9-0215</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2007/hpv-vaccine0707</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2009/gemcitabine_cervical0609</t>
   </si>
 </sst>
 </file>
@@ -155,21 +152,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,6 +183,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -229,9 +235,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -245,6 +248,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,13 +567,13 @@
     <col min="3" max="3" width="53.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="54.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -579,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -590,12 +596,14 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="16">
+        <v>483058</v>
+      </c>
       <c r="C2" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="10">
@@ -607,17 +615,19 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
+      <c r="B3" s="16">
+        <v>911742</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="13">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12">
         <v>42065</v>
       </c>
     </row>
@@ -625,12 +635,14 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="16">
+        <v>861405</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="2">
@@ -641,12 +653,14 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="16">
+        <v>804882</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="2">
@@ -657,12 +671,14 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="16">
+        <v>778109</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="2">
@@ -673,15 +689,17 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
+      <c r="B7" s="16">
+        <v>506205</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>41427</v>
       </c>
     </row>
@@ -689,12 +707,14 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="16">
+        <v>579785</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="2">
@@ -705,12 +725,14 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="16">
+        <v>581612</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="2">
@@ -721,12 +743,14 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="16">
+        <v>506205</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="2">
@@ -737,17 +761,19 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="16">
+        <v>13750</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>5</v>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12">
         <v>40879</v>
       </c>
     </row>
@@ -755,17 +781,19 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
+      <c r="B12" s="16">
+        <v>15160</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="13">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12">
         <v>40836</v>
       </c>
     </row>
